--- a/data/en/WaterBalance.xlsx
+++ b/data/en/WaterBalance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\matrizaguaen\data\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66A8BA6-A693-4CB2-88E6-26251DB0F696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC6B521-5C01-4173-BD35-49BDC1874CD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65144E90-7B7A-4BF5-A61F-F10ECC7B4D11}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{65144E90-7B7A-4BF5-A61F-F10ECC7B4D11}"/>
   </bookViews>
   <sheets>
     <sheet name="Drinking_Water_Balance" sheetId="2" r:id="rId1"/>
@@ -330,7 +330,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="2733674" cy="590550"/>
+          <a:ext cx="2758439" cy="590550"/>
           <a:chOff x="571501" y="47625"/>
           <a:chExt cx="2733674" cy="590550"/>
         </a:xfrm>
@@ -744,23 +744,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FCB1F9-6FBB-415C-ACA8-35B58A1620DA}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A20" sqref="A20:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" ht="39" customHeight="1">
@@ -770,7 +770,7 @@
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:7" s="9" customFormat="1" ht="12.75">
+    <row r="3" spans="1:7" s="9" customFormat="1" ht="13.8">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -785,7 +785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25">
+    <row r="6" spans="1:7" ht="16.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -794,7 +794,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1"/>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="30">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1068,6 +1068,29 @@
       </c>
       <c r="G19" s="2">
         <v>4700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="2">
+        <v>89600</v>
+      </c>
+      <c r="C20" s="2">
+        <v>29900</v>
+      </c>
+      <c r="D20" s="2">
+        <v>59600</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4700</v>
+      </c>
+      <c r="F20" s="2">
+        <v>55000</v>
+      </c>
+      <c r="G20" s="2">
+        <v>4200</v>
       </c>
     </row>
   </sheetData>
